--- a/stats/data/data_children_n42.xlsx
+++ b/stats/data/data_children_n42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbang/Dropbox/Other_Research/2019_socpop/SocPop/stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8586004-F5CC-D848-9C06-A811ADDA7992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FB1AC5-0E9A-D144-A783-55B332AAE738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1000" windowWidth="34600" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="3080" windowWidth="24280" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_children_n43" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="211">
   <si>
     <t>id</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>084</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
 </sst>
 </file>
@@ -1497,13 +1500,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BD12" sqref="BD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="62" max="65" width="10.83203125" customWidth="1"/>
+    <col min="67" max="126" width="10.83203125" customWidth="1"/>
     <col min="129" max="129" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="23.6640625" customWidth="1"/>
     <col min="131" max="131" width="20.6640625" customWidth="1"/>
@@ -8243,6 +8248,9 @@
       <c r="DU17" t="s">
         <v>151</v>
       </c>
+      <c r="DW17" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="DY17" t="s">
         <v>147</v>
       </c>
@@ -8632,7 +8640,7 @@
       <c r="DV18">
         <v>25</v>
       </c>
-      <c r="DW18">
+      <c r="DW18" s="4">
         <v>467</v>
       </c>
       <c r="DX18">
@@ -9024,6 +9032,9 @@
       <c r="DU19" t="s">
         <v>151</v>
       </c>
+      <c r="DW19" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="DY19" t="s">
         <v>147</v>
       </c>
@@ -9416,7 +9427,7 @@
       <c r="DV20">
         <v>25</v>
       </c>
-      <c r="DW20">
+      <c r="DW20" s="4">
         <v>153</v>
       </c>
       <c r="DX20">
@@ -9817,7 +9828,7 @@
       <c r="DV21">
         <v>26</v>
       </c>
-      <c r="DW21">
+      <c r="DW21" s="4">
         <v>22</v>
       </c>
       <c r="DX21">
@@ -10215,7 +10226,7 @@
       <c r="DV22">
         <v>24</v>
       </c>
-      <c r="DW22">
+      <c r="DW22" s="4">
         <v>218</v>
       </c>
       <c r="DX22">
@@ -10607,7 +10618,7 @@
       <c r="DV23">
         <v>24</v>
       </c>
-      <c r="DW23">
+      <c r="DW23" s="4">
         <v>607</v>
       </c>
       <c r="DX23">
@@ -11005,7 +11016,7 @@
       <c r="DV24">
         <v>27</v>
       </c>
-      <c r="DW24">
+      <c r="DW24" s="4">
         <v>94</v>
       </c>
       <c r="DX24">
@@ -11394,7 +11405,7 @@
       <c r="DV25">
         <v>25</v>
       </c>
-      <c r="DW25">
+      <c r="DW25" s="4">
         <v>293</v>
       </c>
       <c r="DX25">
@@ -11786,7 +11797,7 @@
       <c r="DV26">
         <v>26</v>
       </c>
-      <c r="DW26">
+      <c r="DW26" s="4">
         <v>115</v>
       </c>
       <c r="DX26">
@@ -12169,6 +12180,9 @@
       <c r="DT27">
         <v>29</v>
       </c>
+      <c r="DW27" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="DY27" t="s">
         <v>147</v>
       </c>
@@ -12555,7 +12569,7 @@
       <c r="DV28">
         <v>25</v>
       </c>
-      <c r="DW28">
+      <c r="DW28" s="4">
         <v>513</v>
       </c>
       <c r="DX28">
@@ -12944,7 +12958,7 @@
       <c r="DV29">
         <v>26</v>
       </c>
-      <c r="DW29">
+      <c r="DW29" s="4">
         <v>164</v>
       </c>
       <c r="DX29">
@@ -13339,7 +13353,7 @@
       <c r="DV30">
         <v>26</v>
       </c>
-      <c r="DW30">
+      <c r="DW30" s="4">
         <v>174</v>
       </c>
       <c r="DX30">
@@ -13728,7 +13742,7 @@
       <c r="DV31">
         <v>26</v>
       </c>
-      <c r="DW31">
+      <c r="DW31" s="4">
         <v>154</v>
       </c>
       <c r="DX31">
@@ -14117,7 +14131,7 @@
       <c r="DV32">
         <v>26</v>
       </c>
-      <c r="DW32">
+      <c r="DW32" s="4">
         <v>139</v>
       </c>
       <c r="DX32">
@@ -14338,7 +14352,7 @@
       <c r="BK33">
         <v>19</v>
       </c>
-      <c r="BN33">
+      <c r="BN33" s="4">
         <v>57</v>
       </c>
       <c r="BO33">
@@ -14506,7 +14520,7 @@
       <c r="DV33">
         <v>27</v>
       </c>
-      <c r="DW33">
+      <c r="DW33" s="4">
         <v>330</v>
       </c>
       <c r="DX33">
@@ -14724,6 +14738,9 @@
       <c r="BI34">
         <v>401</v>
       </c>
+      <c r="BN34" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="BP34" t="s">
         <v>147</v>
       </c>
@@ -14882,6 +14899,9 @@
       </c>
       <c r="DT34">
         <v>32</v>
+      </c>
+      <c r="DW34" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="DY34" t="s">
         <v>147</v>
@@ -15092,6 +15112,9 @@
       <c r="BI35">
         <v>411</v>
       </c>
+      <c r="BN35" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="BP35" t="s">
         <v>147</v>
       </c>
@@ -15254,7 +15277,7 @@
       <c r="DV35">
         <v>26</v>
       </c>
-      <c r="DW35">
+      <c r="DW35" s="4">
         <v>305</v>
       </c>
       <c r="DX35">
@@ -15475,7 +15498,7 @@
       <c r="BK36">
         <v>18</v>
       </c>
-      <c r="BN36">
+      <c r="BN36" s="4">
         <v>28</v>
       </c>
       <c r="BO36">
@@ -15636,6 +15659,18 @@
       </c>
       <c r="DT36">
         <v>30</v>
+      </c>
+      <c r="DU36" t="s">
+        <v>151</v>
+      </c>
+      <c r="DV36">
+        <v>27</v>
+      </c>
+      <c r="DW36" s="4">
+        <v>178</v>
+      </c>
+      <c r="DX36" s="4">
+        <v>27</v>
       </c>
       <c r="DY36" t="s">
         <v>147</v>

--- a/stats/data/data_children_n42.xlsx
+++ b/stats/data/data_children_n42.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbang/Dropbox/Other_Research/2019_socpop/SocPop/stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FB1AC5-0E9A-D144-A783-55B332AAE738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6BE636-47DE-DB4A-9208-ADE56D85B8F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="3080" windowWidth="24280" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="3080" windowWidth="30220" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_children_n43" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="210">
   <si>
     <t>id</t>
   </si>
@@ -650,9 +650,6 @@
   </si>
   <si>
     <t>084</t>
-  </si>
-  <si>
-    <t>missing</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BD12" sqref="BD12"/>
+    <sheetView tabSelected="1" topLeftCell="DF1" workbookViewId="0">
+      <selection activeCell="DX28" sqref="DX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8248,9 +8245,7 @@
       <c r="DU17" t="s">
         <v>151</v>
       </c>
-      <c r="DW17" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="DW17" s="4"/>
       <c r="DY17" t="s">
         <v>147</v>
       </c>
@@ -9032,9 +9027,7 @@
       <c r="DU19" t="s">
         <v>151</v>
       </c>
-      <c r="DW19" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="DW19" s="4"/>
       <c r="DY19" t="s">
         <v>147</v>
       </c>
@@ -12180,9 +12173,7 @@
       <c r="DT27">
         <v>29</v>
       </c>
-      <c r="DW27" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="DW27" s="4"/>
       <c r="DY27" t="s">
         <v>147</v>
       </c>
@@ -14738,9 +14729,7 @@
       <c r="BI34">
         <v>401</v>
       </c>
-      <c r="BN34" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="BN34" s="4"/>
       <c r="BP34" t="s">
         <v>147</v>
       </c>
@@ -14900,9 +14889,7 @@
       <c r="DT34">
         <v>32</v>
       </c>
-      <c r="DW34" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="DW34" s="4"/>
       <c r="DY34" t="s">
         <v>147</v>
       </c>
@@ -15112,9 +15099,7 @@
       <c r="BI35">
         <v>411</v>
       </c>
-      <c r="BN35" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="BN35" s="4"/>
       <c r="BP35" t="s">
         <v>147</v>
       </c>
